--- a/Vd3_Fremdriftsplan_v1_gr21.xlsx
+++ b/Vd3_Fremdriftsplan_v1_gr21.xlsx
@@ -358,13 +358,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -375,54 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,15 +382,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -454,6 +396,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Fulgt hyperkobling" xfId="2" builtinId="9" hidden="1"/>
@@ -797,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P32"/>
+  <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,626 +803,634 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="28">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="13"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="P3" s="13"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="17" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>41281</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="9">
         <v>41414</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="16"/>
-      <c r="P5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="19">
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42" t="s">
+      <c r="J6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="11" t="s">
+      <c r="M6" s="21"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="7"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="9"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="34"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="12"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="38" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="40" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="39"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" customHeight="1">
-      <c r="B11" s="20" t="s">
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="1:16" ht="17" customHeight="1">
+      <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="24" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="29" t="s">
         <v>17</v>
       </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="40"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="24"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="J11" s="24"/>
       <c r="K11" s="25"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="B13" s="20" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
+      <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="24" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="25"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="J13" s="24"/>
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="M13" s="24"/>
       <c r="N13" s="26"/>
-      <c r="O13" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="O13" s="25"/>
       <c r="P13" s="26"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="16" customHeight="1">
-      <c r="B15" s="20" t="s">
+    <row r="14" spans="1:16" ht="16" customHeight="1">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="24" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="29" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="J15" s="24"/>
       <c r="K15" s="25"/>
       <c r="L15" s="26"/>
-      <c r="M15" s="24" t="s">
-        <v>21</v>
-      </c>
+      <c r="M15" s="24"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="O15" s="25"/>
       <c r="P15" s="26"/>
     </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="2:16" ht="16" customHeight="1">
-      <c r="B17" s="20" t="s">
+    <row r="16" spans="1:16" ht="16" customHeight="1">
+      <c r="B16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="24" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="29" t="s">
         <v>22</v>
       </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
-      <c r="J17" s="24" t="s">
-        <v>24</v>
-      </c>
+      <c r="J17" s="24"/>
       <c r="K17" s="25"/>
       <c r="L17" s="26"/>
-      <c r="M17" s="24" t="s">
-        <v>26</v>
-      </c>
+      <c r="M17" s="24"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="O17" s="25"/>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="48"/>
-    </row>
-    <row r="19" spans="2:16" ht="30" customHeight="1">
-      <c r="B19" s="22" t="s">
+    <row r="18" spans="2:16" ht="30" customHeight="1">
+      <c r="B18" s="34" t="s">
         <v>13</v>
       </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="22"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="24" t="s">
-        <v>25</v>
-      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="24" t="s">
-        <v>30</v>
-      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="24" t="s">
-        <v>27</v>
-      </c>
+      <c r="M19" s="24"/>
       <c r="N19" s="26"/>
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="2:16" ht="33" customHeight="1">
-      <c r="B21" s="20" t="s">
+    <row r="20" spans="2:16" ht="33" customHeight="1">
+      <c r="B20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
-      <c r="M21" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="30"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="48"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="24"/>
       <c r="E23" s="25"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="24"/>
       <c r="K23" s="25"/>
       <c r="L23" s="26"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="48"/>
+      <c r="B24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="24"/>
       <c r="K25" s="25"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="48"/>
-    </row>
-    <row r="27" spans="2:16" ht="29" customHeight="1">
-      <c r="B27" s="22" t="s">
+      <c r="M25" s="24"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" ht="29" customHeight="1">
+      <c r="B26" s="34" t="s">
         <v>19</v>
       </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="22"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="48"/>
+      <c r="B28" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="2:16">
-      <c r="B29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="48"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="14"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="68">
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G30:I31"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Vd3_Fremdriftsplan_v1_gr21.xlsx
+++ b/Vd3_Fremdriftsplan_v1_gr21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="22820" windowHeight="14060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Januar</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Fremdriftsplan v 1.0</t>
+  </si>
+  <si>
+    <t>Brukertesting</t>
+  </si>
+  <si>
+    <t>Akseptansetest</t>
+  </si>
+  <si>
+    <t>Usability</t>
   </si>
 </sst>
 </file>
@@ -396,56 +405,56 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -792,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,43 +915,43 @@
         <v>7</v>
       </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="37"/>
+      <c r="P9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="17" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="27"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="28"/>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="40"/>
+      <c r="P10" s="39"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="22"/>
@@ -962,30 +971,30 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="28"/>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="27"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="28"/>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="28"/>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="31" t="s">
         <v>20</v>
       </c>
       <c r="P12" s="28"/>
@@ -1008,30 +1017,30 @@
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="27"/>
+      <c r="H14" s="31"/>
       <c r="I14" s="28"/>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="27" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="28"/>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="31" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="28"/>
@@ -1054,30 +1063,30 @@
       <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="27"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="31"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="27" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="28"/>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="31" t="s">
         <v>28</v>
       </c>
       <c r="P16" s="28"/>
@@ -1100,30 +1109,30 @@
       <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="30" customHeight="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="27"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="28"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="27"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="27" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="28"/>
-      <c r="O18" s="27"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="28"/>
     </row>
     <row r="19" spans="2:16">
@@ -1144,26 +1153,26 @@
       <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="27"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="28"/>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="27"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="30" t="s">
+      <c r="M20" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="29"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="28"/>
     </row>
     <row r="21" spans="2:16">
@@ -1184,22 +1193,24 @@
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="27"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="27"/>
+      <c r="J22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="31"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
+      <c r="O22" s="27"/>
       <c r="P22" s="28"/>
     </row>
     <row r="23" spans="2:16">
@@ -1220,22 +1231,24 @@
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="27"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="27"/>
+      <c r="J24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="31"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
+      <c r="O24" s="27"/>
       <c r="P24" s="28"/>
     </row>
     <row r="25" spans="2:16">
@@ -1256,22 +1269,24 @@
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:16" ht="29" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="27"/>
+      <c r="J26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="31"/>
       <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
+      <c r="O26" s="27"/>
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="2:16">
@@ -1292,22 +1307,22 @@
       <c r="P27" s="26"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="27"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="31"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="29"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
+      <c r="O28" s="27"/>
       <c r="P28" s="28"/>
     </row>
     <row r="29" spans="2:16">
@@ -1328,82 +1343,55 @@
       <c r="P29" s="26"/>
     </row>
     <row r="30" spans="2:16">
-      <c r="B30" s="29"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="31"/>
       <c r="L30" s="28"/>
-      <c r="M30" s="29"/>
+      <c r="M30" s="27"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="29"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="42"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L31"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:F31"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G30:I31"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G12:I12"/>
@@ -1417,20 +1405,47 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:F31"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Vd3_Fremdriftsplan_v1_gr21.xlsx
+++ b/Vd3_Fremdriftsplan_v1_gr21.xlsx
@@ -411,50 +411,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -915,43 +915,43 @@
         <v>7</v>
       </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="33" t="s">
+      <c r="M9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="34"/>
+      <c r="P9" s="37"/>
     </row>
     <row r="10" spans="1:16" ht="17" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="28"/>
       <c r="G10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="31"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="28"/>
       <c r="J10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="31"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="28"/>
       <c r="M10" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="28"/>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16">
       <c r="B11" s="22"/>
@@ -971,30 +971,30 @@
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="28"/>
       <c r="G12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="31"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="28"/>
       <c r="J12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="31"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="28"/>
       <c r="M12" s="27" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="28"/>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="P12" s="28"/>
@@ -1017,30 +1017,30 @@
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" ht="16" customHeight="1">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="37"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="28"/>
       <c r="G14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="31"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="28"/>
       <c r="J14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="31"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="28"/>
       <c r="M14" s="27" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="28"/>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="29" t="s">
         <v>21</v>
       </c>
       <c r="P14" s="28"/>
@@ -1063,30 +1063,30 @@
       <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" ht="16" customHeight="1">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="28"/>
       <c r="G16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="31"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="28"/>
       <c r="J16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="31"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="28"/>
       <c r="M16" s="27" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="28"/>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="29" t="s">
         <v>28</v>
       </c>
       <c r="P16" s="28"/>
@@ -1109,30 +1109,30 @@
       <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="30" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="31"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="28"/>
       <c r="J18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="31"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="28"/>
       <c r="M18" s="27" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="28"/>
-      <c r="O18" s="31"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="28"/>
     </row>
     <row r="19" spans="2:16">
@@ -1153,25 +1153,25 @@
       <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="37"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="28"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="28"/>
       <c r="J20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="43"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="27"/>
       <c r="P20" s="28"/>
     </row>
@@ -1193,20 +1193,20 @@
       <c r="P21" s="26"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="28"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="31"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="28"/>
       <c r="J22" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="31"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="28"/>
       <c r="M22" s="27"/>
       <c r="N22" s="28"/>
@@ -1231,20 +1231,20 @@
       <c r="P23" s="26"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="31"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="28"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="31"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="28"/>
       <c r="J24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="31"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="28"/>
       <c r="M24" s="27"/>
       <c r="N24" s="28"/>
@@ -1269,20 +1269,20 @@
       <c r="P25" s="26"/>
     </row>
     <row r="26" spans="2:16" ht="29" customHeight="1">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="35"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="31"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="28"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="28"/>
       <c r="J26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="31"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="28"/>
       <c r="M26" s="27"/>
       <c r="N26" s="28"/>
@@ -1307,18 +1307,18 @@
       <c r="P27" s="26"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="28"/>
       <c r="G28" s="27"/>
-      <c r="H28" s="31"/>
+      <c r="H28" s="29"/>
       <c r="I28" s="28"/>
       <c r="J28" s="27"/>
-      <c r="K28" s="31"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="28"/>
       <c r="M28" s="27"/>
       <c r="N28" s="28"/>
@@ -1346,13 +1346,13 @@
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="31"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="28"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="31"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="28"/>
       <c r="J30" s="27"/>
-      <c r="K30" s="31"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="28"/>
       <c r="M30" s="27"/>
       <c r="N30" s="28"/>
@@ -1360,70 +1360,34 @@
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="2:16">
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J30:L31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="B30:C31"/>
     <mergeCell ref="D30:F31"/>
@@ -1436,16 +1400,52 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J30:L31"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="O30:P31"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
